--- a/network_data/6_Bus_Transmission_Test_System.xlsx
+++ b/network_data/6_Bus_Transmission_Test_System.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB1E8D-742C-400B-BD29-A04D223F40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2B43D4-1FB6-49BA-A3C7-70C5E6F60AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -577,21 +577,21 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
+    <col min="2" max="2" width="21.15625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.68359375" customWidth="1"/>
+    <col min="5" max="5" width="26.68359375" customWidth="1"/>
+    <col min="6" max="6" width="35.26171875" customWidth="1"/>
+    <col min="8" max="8" width="17.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F3" s="2">
         <v>4</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="2">
         <v>5</v>
       </c>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F5" s="2">
         <v>6</v>
       </c>
@@ -676,19 +676,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="2"/>
     </row>
   </sheetData>
@@ -704,18 +704,18 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.15625" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.41796875" customWidth="1"/>
+    <col min="5" max="5" width="14.83984375" customWidth="1"/>
+    <col min="6" max="6" width="22.15625" customWidth="1"/>
+    <col min="7" max="7" width="11.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -788,7 +788,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -838,7 +838,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -926,19 +926,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" customWidth="1"/>
+    <col min="5" max="5" width="21.83984375" customWidth="1"/>
+    <col min="6" max="6" width="23.15625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.41796875" customWidth="1"/>
+    <col min="9" max="9" width="19.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,7 +967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1093,7 +1093,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1117,12 +1117,12 @@
       <selection activeCell="AB2" sqref="AB2:AY4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2654,9 +2654,9 @@
       <selection activeCell="AB5" sqref="AB5:AY5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -3415,27 +3415,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="AA10" s="5"/>
@@ -3457,13 +3457,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.578125" customWidth="1"/>
+    <col min="27" max="27" width="12.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>8.2919505256540695</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>8.3373101814226445</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8.4741230655824573</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>7.9622234552801352</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>7.951749122874153</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>7.7252039982761698</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>7.7838578477123779</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>7.9684295136822323</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>7.7000276575815247</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="2"/>
@@ -5005,40 +5005,40 @@
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="Q13" s="4"/>
     </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="S18" s="4"/>
     </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="J23" s="4"/>
     </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="Q28" s="4"/>
     </row>
-    <row r="32" spans="4:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:28" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="4"/>
     </row>
-    <row r="34" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:35" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="4"/>
     </row>
-    <row r="37" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:35" x14ac:dyDescent="0.55000000000000004">
       <c r="AG37" s="4"/>
     </row>
-    <row r="41" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:35" x14ac:dyDescent="0.55000000000000004">
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:35" x14ac:dyDescent="0.55000000000000004">
       <c r="AI42" s="4"/>
     </row>
-    <row r="43" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:35" x14ac:dyDescent="0.55000000000000004">
       <c r="P43" s="4"/>
       <c r="X43" s="4"/>
     </row>
